--- a/data/05_input/zm.bs18a.xlsx
+++ b/data/05_input/zm.bs18a.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/FFDE22B2-4C9B-43D5-A05F-B463083A185F/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/06_local_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/DD0E0C16-7133-4C91-A718-34F45A243B9B/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AE5C4F-FCC5-1747-AA3F-8959204F8715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956206FA-369C-A841-ADF0-D0F70BDA9F19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="13740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="17360" yWindow="9740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>SampleID</t>
   </si>
@@ -63,124 +63,127 @@
     <t>B73</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/B73-3_S1_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/B73-3_S1_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s02</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/B73-4_S2_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/B73-4_S2_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s03</t>
   </si>
   <si>
     <t>B73xMo17</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/BxM-1_S7_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/BxM-1_S7_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s04</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/BxM-2_S8_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/BxM-2_S8_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s05</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/F2-3-2_S9_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/F2-3-2_S9_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s06</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/F2-4-2_S10_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/F2-4-2_S10_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s07</t>
   </si>
   <si>
     <t>Mo17</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/Mo17-1_S3_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/Mo17-1_S3_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s08</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/Mo17-2_S4_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/Mo17-2_S4_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s09</t>
   </si>
   <si>
     <t>Oh43</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/Oh43-7_S5_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/Oh43-7_S5_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s10</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/Oh43-8_S6_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/Oh43-8_S6_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s11</t>
   </si>
   <si>
     <t>W22</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/W22-1_S11_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/W22-1_S11_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>s12</t>
   </si>
   <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/W22-3_S12_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/data_release/umgc/hiseq/180927_D00635_0413_BCCTE5ANXX/Springer_Project_063/W22-3_S12_R2_001.fastq.gz</t>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/B73-3_S1_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/B73-3_S1_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/B73-4_S2_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/B73-4_S2_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/BxM-1_S7_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/BxM-1_S7_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/BxM-2_S8_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/BxM-2_S8_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/F2-3-2_S9_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/F2-3-2_S9_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/F2-4-2_S10_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/F2-4-2_S10_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/Mo17-1_S3_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/Mo17-1_S3_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/Mo17-2_S4_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/Mo17-2_S4_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/Oh43-7_S5_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/Oh43-7_S5_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/Oh43-8_S6_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/Oh43-8_S6_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/W22-1_S11_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/W22-1_S11_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/W22-3_S12_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>180927_D00635_0413_BCCTE5ANXX/W22-3_S12_R2_001.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,19 +589,19 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -609,244 +612,244 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="F11" t="s">
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="F12" t="s">
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="F13" t="s">
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
